--- a/Suppliers/file/suppliers/NanXiang.xlsx
+++ b/Suppliers/file/suppliers/NanXiang.xlsx
@@ -21987,10 +21987,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D278" s="2" t="inlineStr"/>
-      <c r="E278" s="2" t="inlineStr"/>
-      <c r="F278" s="2" t="inlineStr"/>
-      <c r="G278" s="2" t="inlineStr"/>
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H278" s="2" t="inlineStr">
         <is>
           <t>010104014801</t>
@@ -22059,10 +22075,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D279" s="2" t="inlineStr"/>
-      <c r="E279" s="2" t="inlineStr"/>
-      <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr"/>
+      <c r="D279" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H279" s="2" t="inlineStr">
         <is>
           <t>010104015001</t>
@@ -22131,10 +22163,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D280" s="2" t="inlineStr"/>
-      <c r="E280" s="2" t="inlineStr"/>
-      <c r="F280" s="2" t="inlineStr"/>
-      <c r="G280" s="2" t="inlineStr"/>
+      <c r="D280" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H280" s="2" t="inlineStr">
         <is>
           <t>010108021301</t>
@@ -22203,10 +22251,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D281" s="2" t="inlineStr"/>
-      <c r="E281" s="2" t="inlineStr"/>
-      <c r="F281" s="2" t="inlineStr"/>
-      <c r="G281" s="2" t="inlineStr"/>
+      <c r="D281" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H281" s="2" t="inlineStr">
         <is>
           <t>010108021701</t>
@@ -22275,10 +22339,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D282" s="2" t="inlineStr"/>
-      <c r="E282" s="2" t="inlineStr"/>
-      <c r="F282" s="2" t="inlineStr"/>
-      <c r="G282" s="2" t="inlineStr"/>
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H282" s="2" t="inlineStr">
         <is>
           <t>010108021901</t>
@@ -22347,10 +22427,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D283" s="2" t="inlineStr"/>
-      <c r="E283" s="2" t="inlineStr"/>
-      <c r="F283" s="2" t="inlineStr"/>
-      <c r="G283" s="2" t="inlineStr"/>
+      <c r="D283" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H283" s="2" t="inlineStr">
         <is>
           <t>010108022001</t>
@@ -22419,10 +22515,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D284" s="2" t="inlineStr"/>
-      <c r="E284" s="2" t="inlineStr"/>
-      <c r="F284" s="2" t="inlineStr"/>
-      <c r="G284" s="2" t="inlineStr"/>
+      <c r="D284" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F284" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G284" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H284" s="2" t="inlineStr">
         <is>
           <t>010108022101</t>
@@ -22491,10 +22603,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D285" s="2" t="inlineStr"/>
-      <c r="E285" s="2" t="inlineStr"/>
-      <c r="F285" s="2" t="inlineStr"/>
-      <c r="G285" s="2" t="inlineStr"/>
+      <c r="D285" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H285" s="2" t="inlineStr">
         <is>
           <t>010108022201</t>
@@ -22563,10 +22691,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D286" s="2" t="inlineStr"/>
-      <c r="E286" s="2" t="inlineStr"/>
-      <c r="F286" s="2" t="inlineStr"/>
-      <c r="G286" s="2" t="inlineStr"/>
+      <c r="D286" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H286" s="2" t="inlineStr">
         <is>
           <t>010108022301</t>
@@ -22635,10 +22779,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D287" s="2" t="inlineStr"/>
-      <c r="E287" s="2" t="inlineStr"/>
-      <c r="F287" s="2" t="inlineStr"/>
-      <c r="G287" s="2" t="inlineStr"/>
+      <c r="D287" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H287" s="2" t="inlineStr">
         <is>
           <t>010108022401</t>
@@ -22707,10 +22867,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D288" s="2" t="inlineStr"/>
-      <c r="E288" s="2" t="inlineStr"/>
-      <c r="F288" s="2" t="inlineStr"/>
-      <c r="G288" s="2" t="inlineStr"/>
+      <c r="D288" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H288" s="2" t="inlineStr">
         <is>
           <t>010108022401</t>
@@ -22779,10 +22955,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D289" s="2" t="inlineStr"/>
-      <c r="E289" s="2" t="inlineStr"/>
-      <c r="F289" s="2" t="inlineStr"/>
-      <c r="G289" s="2" t="inlineStr"/>
+      <c r="D289" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F289" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H289" s="2" t="inlineStr">
         <is>
           <t>010108022901</t>
@@ -22851,10 +23043,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D290" s="2" t="inlineStr"/>
-      <c r="E290" s="2" t="inlineStr"/>
-      <c r="F290" s="2" t="inlineStr"/>
-      <c r="G290" s="2" t="inlineStr"/>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G290" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H290" s="2" t="inlineStr">
         <is>
           <t>010201102801</t>
@@ -22923,10 +23131,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D291" s="2" t="inlineStr"/>
-      <c r="E291" s="2" t="inlineStr"/>
-      <c r="F291" s="2" t="inlineStr"/>
-      <c r="G291" s="2" t="inlineStr"/>
+      <c r="D291" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H291" s="2" t="inlineStr">
         <is>
           <t>010201103001</t>
@@ -22995,10 +23219,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D292" s="2" t="inlineStr"/>
-      <c r="E292" s="2" t="inlineStr"/>
-      <c r="F292" s="2" t="inlineStr"/>
-      <c r="G292" s="2" t="inlineStr"/>
+      <c r="D292" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H292" s="2" t="inlineStr">
         <is>
           <t>010201104101</t>
@@ -23067,10 +23307,26 @@
           <t>上海其田</t>
         </is>
       </c>
-      <c r="D293" s="2" t="inlineStr"/>
-      <c r="E293" s="2" t="inlineStr"/>
-      <c r="F293" s="2" t="inlineStr"/>
-      <c r="G293" s="2" t="inlineStr"/>
+      <c r="D293" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F293" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G293" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H293" s="2" t="inlineStr">
         <is>
           <t>010201132901</t>
@@ -28683,10 +28939,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D365" s="2" t="inlineStr"/>
-      <c r="E365" s="2" t="inlineStr"/>
-      <c r="F365" s="2" t="inlineStr"/>
-      <c r="G365" s="2" t="inlineStr"/>
+      <c r="D365" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F365" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G365" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H365" s="2" t="inlineStr">
         <is>
           <t>010104003901</t>
@@ -28755,10 +29027,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D366" s="2" t="inlineStr"/>
-      <c r="E366" s="2" t="inlineStr"/>
-      <c r="F366" s="2" t="inlineStr"/>
-      <c r="G366" s="2" t="inlineStr"/>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F366" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G366" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H366" s="2" t="inlineStr">
         <is>
           <t>010104004101</t>
@@ -28827,10 +29115,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D367" s="2" t="inlineStr"/>
-      <c r="E367" s="2" t="inlineStr"/>
-      <c r="F367" s="2" t="inlineStr"/>
-      <c r="G367" s="2" t="inlineStr"/>
+      <c r="D367" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F367" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G367" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H367" s="2" t="inlineStr">
         <is>
           <t>010108003401</t>
@@ -28899,10 +29203,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D368" s="2" t="inlineStr"/>
-      <c r="E368" s="2" t="inlineStr"/>
-      <c r="F368" s="2" t="inlineStr"/>
-      <c r="G368" s="2" t="inlineStr"/>
+      <c r="D368" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F368" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G368" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H368" s="2" t="inlineStr">
         <is>
           <t>010108005501</t>
@@ -28971,10 +29291,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D369" s="2" t="inlineStr"/>
-      <c r="E369" s="2" t="inlineStr"/>
-      <c r="F369" s="2" t="inlineStr"/>
-      <c r="G369" s="2" t="inlineStr"/>
+      <c r="D369" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F369" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G369" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H369" s="2" t="inlineStr">
         <is>
           <t>010108005701</t>
@@ -29043,10 +29379,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D370" s="2" t="inlineStr"/>
-      <c r="E370" s="2" t="inlineStr"/>
-      <c r="F370" s="2" t="inlineStr"/>
-      <c r="G370" s="2" t="inlineStr"/>
+      <c r="D370" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F370" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G370" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H370" s="2" t="inlineStr">
         <is>
           <t>010108005801</t>
@@ -29115,10 +29467,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D371" s="2" t="inlineStr"/>
-      <c r="E371" s="2" t="inlineStr"/>
-      <c r="F371" s="2" t="inlineStr"/>
-      <c r="G371" s="2" t="inlineStr"/>
+      <c r="D371" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F371" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G371" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H371" s="2" t="inlineStr">
         <is>
           <t>010108006001</t>
@@ -29187,10 +29555,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D372" s="2" t="inlineStr"/>
-      <c r="E372" s="2" t="inlineStr"/>
-      <c r="F372" s="2" t="inlineStr"/>
-      <c r="G372" s="2" t="inlineStr"/>
+      <c r="D372" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F372" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G372" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H372" s="2" t="inlineStr">
         <is>
           <t>010108006101</t>
@@ -29259,10 +29643,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D373" s="2" t="inlineStr"/>
-      <c r="E373" s="2" t="inlineStr"/>
-      <c r="F373" s="2" t="inlineStr"/>
-      <c r="G373" s="2" t="inlineStr"/>
+      <c r="D373" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F373" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G373" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H373" s="2" t="inlineStr">
         <is>
           <t>010108006501</t>
@@ -29331,10 +29731,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D374" s="2" t="inlineStr"/>
-      <c r="E374" s="2" t="inlineStr"/>
-      <c r="F374" s="2" t="inlineStr"/>
-      <c r="G374" s="2" t="inlineStr"/>
+      <c r="D374" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F374" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G374" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H374" s="2" t="inlineStr">
         <is>
           <t>010108006701</t>
@@ -29403,10 +29819,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D375" s="2" t="inlineStr"/>
-      <c r="E375" s="2" t="inlineStr"/>
-      <c r="F375" s="2" t="inlineStr"/>
-      <c r="G375" s="2" t="inlineStr"/>
+      <c r="D375" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F375" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G375" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H375" s="2" t="inlineStr">
         <is>
           <t>010108006901</t>
@@ -29475,10 +29907,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D376" s="2" t="inlineStr"/>
-      <c r="E376" s="2" t="inlineStr"/>
-      <c r="F376" s="2" t="inlineStr"/>
-      <c r="G376" s="2" t="inlineStr"/>
+      <c r="D376" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F376" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G376" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H376" s="2" t="inlineStr">
         <is>
           <t>010108007001</t>
@@ -29547,10 +29995,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D377" s="2" t="inlineStr"/>
-      <c r="E377" s="2" t="inlineStr"/>
-      <c r="F377" s="2" t="inlineStr"/>
-      <c r="G377" s="2" t="inlineStr"/>
+      <c r="D377" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F377" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G377" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H377" s="2" t="inlineStr">
         <is>
           <t>010108007101</t>
@@ -29619,10 +30083,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D378" s="2" t="inlineStr"/>
-      <c r="E378" s="2" t="inlineStr"/>
-      <c r="F378" s="2" t="inlineStr"/>
-      <c r="G378" s="2" t="inlineStr"/>
+      <c r="D378" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F378" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G378" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H378" s="2" t="inlineStr">
         <is>
           <t>010108007201</t>
@@ -29691,10 +30171,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D379" s="2" t="inlineStr"/>
-      <c r="E379" s="2" t="inlineStr"/>
-      <c r="F379" s="2" t="inlineStr"/>
-      <c r="G379" s="2" t="inlineStr"/>
+      <c r="D379" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E379" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F379" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G379" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H379" s="2" t="inlineStr">
         <is>
           <t>010108007301</t>
@@ -29763,10 +30259,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D380" s="2" t="inlineStr"/>
-      <c r="E380" s="2" t="inlineStr"/>
-      <c r="F380" s="2" t="inlineStr"/>
-      <c r="G380" s="2" t="inlineStr"/>
+      <c r="D380" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E380" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F380" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G380" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H380" s="2" t="inlineStr">
         <is>
           <t>010108007601</t>
@@ -29835,10 +30347,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D381" s="2" t="inlineStr"/>
-      <c r="E381" s="2" t="inlineStr"/>
-      <c r="F381" s="2" t="inlineStr"/>
-      <c r="G381" s="2" t="inlineStr"/>
+      <c r="D381" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E381" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F381" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G381" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H381" s="2" t="inlineStr">
         <is>
           <t>010108007901</t>
@@ -29907,10 +30435,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D382" s="2" t="inlineStr"/>
-      <c r="E382" s="2" t="inlineStr"/>
-      <c r="F382" s="2" t="inlineStr"/>
-      <c r="G382" s="2" t="inlineStr"/>
+      <c r="D382" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E382" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F382" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G382" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H382" s="2" t="inlineStr">
         <is>
           <t>010201002901</t>
@@ -29979,10 +30523,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D383" s="2" t="inlineStr"/>
-      <c r="E383" s="2" t="inlineStr"/>
-      <c r="F383" s="2" t="inlineStr"/>
-      <c r="G383" s="2" t="inlineStr"/>
+      <c r="D383" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E383" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F383" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G383" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H383" s="2" t="inlineStr">
         <is>
           <t>010201003201</t>
@@ -30051,10 +30611,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D384" s="2" t="inlineStr"/>
-      <c r="E384" s="2" t="inlineStr"/>
-      <c r="F384" s="2" t="inlineStr"/>
-      <c r="G384" s="2" t="inlineStr"/>
+      <c r="D384" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E384" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F384" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G384" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H384" s="2" t="inlineStr">
         <is>
           <t>010201003401</t>
@@ -30123,10 +30699,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D385" s="2" t="inlineStr"/>
-      <c r="E385" s="2" t="inlineStr"/>
-      <c r="F385" s="2" t="inlineStr"/>
-      <c r="G385" s="2" t="inlineStr"/>
+      <c r="D385" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E385" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F385" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G385" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H385" s="2" t="inlineStr">
         <is>
           <t>010201003701</t>
@@ -30195,10 +30787,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D386" s="2" t="inlineStr"/>
-      <c r="E386" s="2" t="inlineStr"/>
-      <c r="F386" s="2" t="inlineStr"/>
-      <c r="G386" s="2" t="inlineStr"/>
+      <c r="D386" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E386" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F386" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G386" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H386" s="2" t="inlineStr">
         <is>
           <t>010201003801</t>
@@ -30267,10 +30875,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D387" s="2" t="inlineStr"/>
-      <c r="E387" s="2" t="inlineStr"/>
-      <c r="F387" s="2" t="inlineStr"/>
-      <c r="G387" s="2" t="inlineStr"/>
+      <c r="D387" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E387" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H387" s="2" t="inlineStr">
         <is>
           <t>010201003801</t>
@@ -30339,10 +30963,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D388" s="2" t="inlineStr"/>
-      <c r="E388" s="2" t="inlineStr"/>
-      <c r="F388" s="2" t="inlineStr"/>
-      <c r="G388" s="2" t="inlineStr"/>
+      <c r="D388" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H388" s="2" t="inlineStr">
         <is>
           <t>010201003901</t>
@@ -30411,10 +31051,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D389" s="2" t="inlineStr"/>
-      <c r="E389" s="2" t="inlineStr"/>
-      <c r="F389" s="2" t="inlineStr"/>
-      <c r="G389" s="2" t="inlineStr"/>
+      <c r="D389" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H389" s="2" t="inlineStr">
         <is>
           <t>010201004001</t>
@@ -30483,10 +31139,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D390" s="2" t="inlineStr"/>
-      <c r="E390" s="2" t="inlineStr"/>
-      <c r="F390" s="2" t="inlineStr"/>
-      <c r="G390" s="2" t="inlineStr"/>
+      <c r="D390" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E390" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H390" s="2" t="inlineStr">
         <is>
           <t>010201004201</t>
@@ -30555,10 +31227,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D391" s="2" t="inlineStr"/>
-      <c r="E391" s="2" t="inlineStr"/>
-      <c r="F391" s="2" t="inlineStr"/>
-      <c r="G391" s="2" t="inlineStr"/>
+      <c r="D391" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E391" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H391" s="2" t="inlineStr">
         <is>
           <t>010201005001</t>
@@ -30627,10 +31315,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D392" s="2" t="inlineStr"/>
-      <c r="E392" s="2" t="inlineStr"/>
-      <c r="F392" s="2" t="inlineStr"/>
-      <c r="G392" s="2" t="inlineStr"/>
+      <c r="D392" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G392" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H392" s="2" t="inlineStr">
         <is>
           <t>010201028801</t>
@@ -30699,10 +31403,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D393" s="2" t="inlineStr"/>
-      <c r="E393" s="2" t="inlineStr"/>
-      <c r="F393" s="2" t="inlineStr"/>
-      <c r="G393" s="2" t="inlineStr"/>
+      <c r="D393" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G393" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H393" s="2" t="inlineStr">
         <is>
           <t>010201029101</t>
@@ -30771,10 +31491,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D394" s="2" t="inlineStr"/>
-      <c r="E394" s="2" t="inlineStr"/>
-      <c r="F394" s="2" t="inlineStr"/>
-      <c r="G394" s="2" t="inlineStr"/>
+      <c r="D394" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F394" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H394" s="2" t="inlineStr">
         <is>
           <t>010201029301</t>
@@ -30843,10 +31579,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D395" s="2" t="inlineStr"/>
-      <c r="E395" s="2" t="inlineStr"/>
-      <c r="F395" s="2" t="inlineStr"/>
-      <c r="G395" s="2" t="inlineStr"/>
+      <c r="D395" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E395" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F395" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G395" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H395" s="2" t="inlineStr">
         <is>
           <t>010201029801</t>
@@ -30915,10 +31667,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D396" s="2" t="inlineStr"/>
-      <c r="E396" s="2" t="inlineStr"/>
-      <c r="F396" s="2" t="inlineStr"/>
-      <c r="G396" s="2" t="inlineStr"/>
+      <c r="D396" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E396" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F396" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G396" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H396" s="2" t="inlineStr">
         <is>
           <t>010201029901</t>
@@ -30987,10 +31755,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D397" s="2" t="inlineStr"/>
-      <c r="E397" s="2" t="inlineStr"/>
-      <c r="F397" s="2" t="inlineStr"/>
-      <c r="G397" s="2" t="inlineStr"/>
+      <c r="D397" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E397" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F397" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G397" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H397" s="2" t="inlineStr">
         <is>
           <t>010201030101</t>
@@ -31059,10 +31843,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D398" s="2" t="inlineStr"/>
-      <c r="E398" s="2" t="inlineStr"/>
-      <c r="F398" s="2" t="inlineStr"/>
-      <c r="G398" s="2" t="inlineStr"/>
+      <c r="D398" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E398" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F398" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G398" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H398" s="2" t="inlineStr">
         <is>
           <t>010201030101</t>
@@ -31131,10 +31931,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D399" s="2" t="inlineStr"/>
-      <c r="E399" s="2" t="inlineStr"/>
-      <c r="F399" s="2" t="inlineStr"/>
-      <c r="G399" s="2" t="inlineStr"/>
+      <c r="D399" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E399" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F399" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G399" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H399" s="2" t="inlineStr">
         <is>
           <t>010201030601</t>
@@ -31203,10 +32019,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D400" s="2" t="inlineStr"/>
-      <c r="E400" s="2" t="inlineStr"/>
-      <c r="F400" s="2" t="inlineStr"/>
-      <c r="G400" s="2" t="inlineStr"/>
+      <c r="D400" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E400" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F400" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G400" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H400" s="2" t="inlineStr">
         <is>
           <t>010201030701</t>
@@ -31275,10 +32107,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D401" s="2" t="inlineStr"/>
-      <c r="E401" s="2" t="inlineStr"/>
-      <c r="F401" s="2" t="inlineStr"/>
-      <c r="G401" s="2" t="inlineStr"/>
+      <c r="D401" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E401" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F401" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G401" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H401" s="2" t="inlineStr">
         <is>
           <t>010201030901</t>
@@ -31347,10 +32195,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D402" s="2" t="inlineStr"/>
-      <c r="E402" s="2" t="inlineStr"/>
-      <c r="F402" s="2" t="inlineStr"/>
-      <c r="G402" s="2" t="inlineStr"/>
+      <c r="D402" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E402" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F402" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G402" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H402" s="2" t="inlineStr">
         <is>
           <t>010201031101</t>
@@ -31419,10 +32283,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D403" s="2" t="inlineStr"/>
-      <c r="E403" s="2" t="inlineStr"/>
-      <c r="F403" s="2" t="inlineStr"/>
-      <c r="G403" s="2" t="inlineStr"/>
+      <c r="D403" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E403" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F403" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G403" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H403" s="2" t="inlineStr">
         <is>
           <t>010201031301</t>
@@ -31491,10 +32371,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D404" s="2" t="inlineStr"/>
-      <c r="E404" s="2" t="inlineStr"/>
-      <c r="F404" s="2" t="inlineStr"/>
-      <c r="G404" s="2" t="inlineStr"/>
+      <c r="D404" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E404" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F404" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G404" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H404" s="2" t="inlineStr">
         <is>
           <t>010201031401</t>
@@ -31563,10 +32459,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D405" s="2" t="inlineStr"/>
-      <c r="E405" s="2" t="inlineStr"/>
-      <c r="F405" s="2" t="inlineStr"/>
-      <c r="G405" s="2" t="inlineStr"/>
+      <c r="D405" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E405" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F405" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G405" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H405" s="2" t="inlineStr">
         <is>
           <t>010201031501</t>
@@ -31635,10 +32547,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D406" s="2" t="inlineStr"/>
-      <c r="E406" s="2" t="inlineStr"/>
-      <c r="F406" s="2" t="inlineStr"/>
-      <c r="G406" s="2" t="inlineStr"/>
+      <c r="D406" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E406" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F406" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G406" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H406" s="2" t="inlineStr">
         <is>
           <t>010201031901</t>
@@ -31707,10 +32635,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D407" s="2" t="inlineStr"/>
-      <c r="E407" s="2" t="inlineStr"/>
-      <c r="F407" s="2" t="inlineStr"/>
-      <c r="G407" s="2" t="inlineStr"/>
+      <c r="D407" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E407" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F407" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G407" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H407" s="2" t="inlineStr">
         <is>
           <t>010201032301</t>
@@ -31779,10 +32723,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D408" s="2" t="inlineStr"/>
-      <c r="E408" s="2" t="inlineStr"/>
-      <c r="F408" s="2" t="inlineStr"/>
-      <c r="G408" s="2" t="inlineStr"/>
+      <c r="D408" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E408" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F408" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G408" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H408" s="2" t="inlineStr">
         <is>
           <t>010201032801</t>
@@ -31851,10 +32811,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D409" s="2" t="inlineStr"/>
-      <c r="E409" s="2" t="inlineStr"/>
-      <c r="F409" s="2" t="inlineStr"/>
-      <c r="G409" s="2" t="inlineStr"/>
+      <c r="D409" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E409" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F409" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G409" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H409" s="2" t="inlineStr">
         <is>
           <t>010201033601</t>
@@ -31923,10 +32899,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D410" s="2" t="inlineStr"/>
-      <c r="E410" s="2" t="inlineStr"/>
-      <c r="F410" s="2" t="inlineStr"/>
-      <c r="G410" s="2" t="inlineStr"/>
+      <c r="D410" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E410" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F410" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G410" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H410" s="2" t="inlineStr">
         <is>
           <t>010201038501</t>
@@ -31995,10 +32987,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D411" s="2" t="inlineStr"/>
-      <c r="E411" s="2" t="inlineStr"/>
-      <c r="F411" s="2" t="inlineStr"/>
-      <c r="G411" s="2" t="inlineStr"/>
+      <c r="D411" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E411" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F411" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G411" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H411" s="2" t="inlineStr">
         <is>
           <t>010201038701</t>
@@ -32067,10 +33075,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D412" s="2" t="inlineStr"/>
-      <c r="E412" s="2" t="inlineStr"/>
-      <c r="F412" s="2" t="inlineStr"/>
-      <c r="G412" s="2" t="inlineStr"/>
+      <c r="D412" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E412" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F412" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G412" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H412" s="2" t="inlineStr">
         <is>
           <t>010201038901</t>
@@ -32139,10 +33163,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D413" s="2" t="inlineStr"/>
-      <c r="E413" s="2" t="inlineStr"/>
-      <c r="F413" s="2" t="inlineStr"/>
-      <c r="G413" s="2" t="inlineStr"/>
+      <c r="D413" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E413" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F413" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G413" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H413" s="2" t="inlineStr">
         <is>
           <t>010201039001</t>
@@ -32211,10 +33251,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D414" s="2" t="inlineStr"/>
-      <c r="E414" s="2" t="inlineStr"/>
-      <c r="F414" s="2" t="inlineStr"/>
-      <c r="G414" s="2" t="inlineStr"/>
+      <c r="D414" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E414" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F414" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G414" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H414" s="2" t="inlineStr">
         <is>
           <t>010201039201</t>
@@ -32283,10 +33339,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D415" s="2" t="inlineStr"/>
-      <c r="E415" s="2" t="inlineStr"/>
-      <c r="F415" s="2" t="inlineStr"/>
-      <c r="G415" s="2" t="inlineStr"/>
+      <c r="D415" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E415" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F415" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G415" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H415" s="2" t="inlineStr">
         <is>
           <t>010201039801</t>
@@ -32355,10 +33427,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D416" s="2" t="inlineStr"/>
-      <c r="E416" s="2" t="inlineStr"/>
-      <c r="F416" s="2" t="inlineStr"/>
-      <c r="G416" s="2" t="inlineStr"/>
+      <c r="D416" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E416" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F416" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G416" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H416" s="2" t="inlineStr">
         <is>
           <t>010201039901</t>
@@ -32427,10 +33515,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D417" s="2" t="inlineStr"/>
-      <c r="E417" s="2" t="inlineStr"/>
-      <c r="F417" s="2" t="inlineStr"/>
-      <c r="G417" s="2" t="inlineStr"/>
+      <c r="D417" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E417" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F417" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G417" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H417" s="2" t="inlineStr">
         <is>
           <t>010201040101</t>
@@ -32499,10 +33603,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D418" s="2" t="inlineStr"/>
-      <c r="E418" s="2" t="inlineStr"/>
-      <c r="F418" s="2" t="inlineStr"/>
-      <c r="G418" s="2" t="inlineStr"/>
+      <c r="D418" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E418" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F418" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G418" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H418" s="2" t="inlineStr">
         <is>
           <t>010201040101</t>
@@ -32571,10 +33691,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D419" s="2" t="inlineStr"/>
-      <c r="E419" s="2" t="inlineStr"/>
-      <c r="F419" s="2" t="inlineStr"/>
-      <c r="G419" s="2" t="inlineStr"/>
+      <c r="D419" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E419" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F419" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G419" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H419" s="2" t="inlineStr">
         <is>
           <t>010201040201</t>
@@ -32643,10 +33779,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D420" s="2" t="inlineStr"/>
-      <c r="E420" s="2" t="inlineStr"/>
-      <c r="F420" s="2" t="inlineStr"/>
-      <c r="G420" s="2" t="inlineStr"/>
+      <c r="D420" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E420" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F420" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G420" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H420" s="2" t="inlineStr">
         <is>
           <t>010201040501</t>
@@ -32715,10 +33867,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D421" s="2" t="inlineStr"/>
-      <c r="E421" s="2" t="inlineStr"/>
-      <c r="F421" s="2" t="inlineStr"/>
-      <c r="G421" s="2" t="inlineStr"/>
+      <c r="D421" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E421" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F421" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G421" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H421" s="2" t="inlineStr">
         <is>
           <t>010201040901</t>
@@ -32787,10 +33955,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D422" s="2" t="inlineStr"/>
-      <c r="E422" s="2" t="inlineStr"/>
-      <c r="F422" s="2" t="inlineStr"/>
-      <c r="G422" s="2" t="inlineStr"/>
+      <c r="D422" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E422" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F422" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G422" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H422" s="2" t="inlineStr">
         <is>
           <t>010201041101</t>
@@ -32859,10 +34043,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D423" s="2" t="inlineStr"/>
-      <c r="E423" s="2" t="inlineStr"/>
-      <c r="F423" s="2" t="inlineStr"/>
-      <c r="G423" s="2" t="inlineStr"/>
+      <c r="D423" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E423" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F423" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G423" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H423" s="2" t="inlineStr">
         <is>
           <t>010201041301</t>
@@ -32931,10 +34131,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D424" s="2" t="inlineStr"/>
-      <c r="E424" s="2" t="inlineStr"/>
-      <c r="F424" s="2" t="inlineStr"/>
-      <c r="G424" s="2" t="inlineStr"/>
+      <c r="D424" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E424" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F424" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G424" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H424" s="2" t="inlineStr">
         <is>
           <t>010201041501</t>
@@ -33003,10 +34219,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D425" s="2" t="inlineStr"/>
-      <c r="E425" s="2" t="inlineStr"/>
-      <c r="F425" s="2" t="inlineStr"/>
-      <c r="G425" s="2" t="inlineStr"/>
+      <c r="D425" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E425" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F425" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G425" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H425" s="2" t="inlineStr">
         <is>
           <t>010201041601</t>
@@ -33075,10 +34307,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D426" s="2" t="inlineStr"/>
-      <c r="E426" s="2" t="inlineStr"/>
-      <c r="F426" s="2" t="inlineStr"/>
-      <c r="G426" s="2" t="inlineStr"/>
+      <c r="D426" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E426" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F426" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G426" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H426" s="2" t="inlineStr">
         <is>
           <t>010201041901</t>
@@ -33147,10 +34395,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D427" s="2" t="inlineStr"/>
-      <c r="E427" s="2" t="inlineStr"/>
-      <c r="F427" s="2" t="inlineStr"/>
-      <c r="G427" s="2" t="inlineStr"/>
+      <c r="D427" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E427" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F427" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G427" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H427" s="2" t="inlineStr">
         <is>
           <t>010201043401</t>
@@ -33219,10 +34483,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D428" s="2" t="inlineStr"/>
-      <c r="E428" s="2" t="inlineStr"/>
-      <c r="F428" s="2" t="inlineStr"/>
-      <c r="G428" s="2" t="inlineStr"/>
+      <c r="D428" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E428" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F428" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G428" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H428" s="2" t="inlineStr">
         <is>
           <t>010201043501</t>
@@ -33291,10 +34571,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D429" s="2" t="inlineStr"/>
-      <c r="E429" s="2" t="inlineStr"/>
-      <c r="F429" s="2" t="inlineStr"/>
-      <c r="G429" s="2" t="inlineStr"/>
+      <c r="D429" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E429" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F429" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G429" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H429" s="2" t="inlineStr">
         <is>
           <t>010201043601</t>
@@ -33363,10 +34659,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D430" s="2" t="inlineStr"/>
-      <c r="E430" s="2" t="inlineStr"/>
-      <c r="F430" s="2" t="inlineStr"/>
-      <c r="G430" s="2" t="inlineStr"/>
+      <c r="D430" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E430" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F430" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G430" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H430" s="2" t="inlineStr">
         <is>
           <t>010201043701</t>
@@ -33435,10 +34747,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D431" s="2" t="inlineStr"/>
-      <c r="E431" s="2" t="inlineStr"/>
-      <c r="F431" s="2" t="inlineStr"/>
-      <c r="G431" s="2" t="inlineStr"/>
+      <c r="D431" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E431" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F431" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G431" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H431" s="2" t="inlineStr">
         <is>
           <t>010201043801</t>
@@ -33507,10 +34835,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D432" s="2" t="inlineStr"/>
-      <c r="E432" s="2" t="inlineStr"/>
-      <c r="F432" s="2" t="inlineStr"/>
-      <c r="G432" s="2" t="inlineStr"/>
+      <c r="D432" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E432" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F432" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G432" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H432" s="2" t="inlineStr">
         <is>
           <t>010201043901</t>
@@ -33579,10 +34923,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D433" s="2" t="inlineStr"/>
-      <c r="E433" s="2" t="inlineStr"/>
-      <c r="F433" s="2" t="inlineStr"/>
-      <c r="G433" s="2" t="inlineStr"/>
+      <c r="D433" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E433" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F433" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G433" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H433" s="2" t="inlineStr">
         <is>
           <t>010201044001</t>
@@ -33651,10 +35011,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D434" s="2" t="inlineStr"/>
-      <c r="E434" s="2" t="inlineStr"/>
-      <c r="F434" s="2" t="inlineStr"/>
-      <c r="G434" s="2" t="inlineStr"/>
+      <c r="D434" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E434" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F434" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G434" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H434" s="2" t="inlineStr">
         <is>
           <t>010201044101</t>
@@ -33723,10 +35099,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D435" s="2" t="inlineStr"/>
-      <c r="E435" s="2" t="inlineStr"/>
-      <c r="F435" s="2" t="inlineStr"/>
-      <c r="G435" s="2" t="inlineStr"/>
+      <c r="D435" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E435" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F435" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G435" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H435" s="2" t="inlineStr">
         <is>
           <t>010201044501</t>
@@ -33795,10 +35187,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D436" s="2" t="inlineStr"/>
-      <c r="E436" s="2" t="inlineStr"/>
-      <c r="F436" s="2" t="inlineStr"/>
-      <c r="G436" s="2" t="inlineStr"/>
+      <c r="D436" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E436" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F436" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G436" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H436" s="2" t="inlineStr">
         <is>
           <t>010201050101</t>
@@ -33867,10 +35275,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D437" s="2" t="inlineStr"/>
-      <c r="E437" s="2" t="inlineStr"/>
-      <c r="F437" s="2" t="inlineStr"/>
-      <c r="G437" s="2" t="inlineStr"/>
+      <c r="D437" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E437" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F437" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G437" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H437" s="2" t="inlineStr">
         <is>
           <t>010201050101</t>
@@ -33939,10 +35363,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D438" s="2" t="inlineStr"/>
-      <c r="E438" s="2" t="inlineStr"/>
-      <c r="F438" s="2" t="inlineStr"/>
-      <c r="G438" s="2" t="inlineStr"/>
+      <c r="D438" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E438" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F438" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G438" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H438" s="2" t="inlineStr">
         <is>
           <t>010201050401</t>
@@ -34011,10 +35451,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D439" s="2" t="inlineStr"/>
-      <c r="E439" s="2" t="inlineStr"/>
-      <c r="F439" s="2" t="inlineStr"/>
-      <c r="G439" s="2" t="inlineStr"/>
+      <c r="D439" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E439" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F439" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G439" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H439" s="2" t="inlineStr">
         <is>
           <t>010201051601</t>
@@ -34083,10 +35539,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D440" s="2" t="inlineStr"/>
-      <c r="E440" s="2" t="inlineStr"/>
-      <c r="F440" s="2" t="inlineStr"/>
-      <c r="G440" s="2" t="inlineStr"/>
+      <c r="D440" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E440" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F440" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G440" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H440" s="2" t="inlineStr">
         <is>
           <t>010201097301</t>
@@ -34155,10 +35627,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D441" s="2" t="inlineStr"/>
-      <c r="E441" s="2" t="inlineStr"/>
-      <c r="F441" s="2" t="inlineStr"/>
-      <c r="G441" s="2" t="inlineStr"/>
+      <c r="D441" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E441" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F441" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G441" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H441" s="2" t="inlineStr">
         <is>
           <t>010201097601</t>
@@ -34227,10 +35715,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D442" s="2" t="inlineStr"/>
-      <c r="E442" s="2" t="inlineStr"/>
-      <c r="F442" s="2" t="inlineStr"/>
-      <c r="G442" s="2" t="inlineStr"/>
+      <c r="D442" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E442" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F442" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G442" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H442" s="2" t="inlineStr">
         <is>
           <t>010302025001</t>
@@ -34299,10 +35803,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D443" s="2" t="inlineStr"/>
-      <c r="E443" s="2" t="inlineStr"/>
-      <c r="F443" s="2" t="inlineStr"/>
-      <c r="G443" s="2" t="inlineStr"/>
+      <c r="D443" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E443" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F443" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G443" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H443" s="2" t="inlineStr">
         <is>
           <t>010302025101</t>
@@ -34371,10 +35891,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D444" s="2" t="inlineStr"/>
-      <c r="E444" s="2" t="inlineStr"/>
-      <c r="F444" s="2" t="inlineStr"/>
-      <c r="G444" s="2" t="inlineStr"/>
+      <c r="D444" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E444" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F444" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G444" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H444" s="2" t="inlineStr">
         <is>
           <t>010302025201</t>
@@ -34443,10 +35979,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D445" s="2" t="inlineStr"/>
-      <c r="E445" s="2" t="inlineStr"/>
-      <c r="F445" s="2" t="inlineStr"/>
-      <c r="G445" s="2" t="inlineStr"/>
+      <c r="D445" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E445" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F445" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G445" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H445" s="2" t="inlineStr">
         <is>
           <t>010302025401</t>
@@ -34515,10 +36067,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D446" s="2" t="inlineStr"/>
-      <c r="E446" s="2" t="inlineStr"/>
-      <c r="F446" s="2" t="inlineStr"/>
-      <c r="G446" s="2" t="inlineStr"/>
+      <c r="D446" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E446" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F446" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G446" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H446" s="2" t="inlineStr">
         <is>
           <t>010302025501</t>
@@ -34587,10 +36155,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D447" s="2" t="inlineStr"/>
-      <c r="E447" s="2" t="inlineStr"/>
-      <c r="F447" s="2" t="inlineStr"/>
-      <c r="G447" s="2" t="inlineStr"/>
+      <c r="D447" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E447" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H447" s="2" t="inlineStr">
         <is>
           <t>010302026901</t>
@@ -34659,10 +36243,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D448" s="2" t="inlineStr"/>
-      <c r="E448" s="2" t="inlineStr"/>
-      <c r="F448" s="2" t="inlineStr"/>
-      <c r="G448" s="2" t="inlineStr"/>
+      <c r="D448" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H448" s="2" t="inlineStr">
         <is>
           <t>010302027001</t>
@@ -34731,10 +36331,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D449" s="2" t="inlineStr"/>
-      <c r="E449" s="2" t="inlineStr"/>
-      <c r="F449" s="2" t="inlineStr"/>
-      <c r="G449" s="2" t="inlineStr"/>
+      <c r="D449" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H449" s="2" t="inlineStr">
         <is>
           <t>010302027101</t>
@@ -34803,10 +36419,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D450" s="2" t="inlineStr"/>
-      <c r="E450" s="2" t="inlineStr"/>
-      <c r="F450" s="2" t="inlineStr"/>
-      <c r="G450" s="2" t="inlineStr"/>
+      <c r="D450" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E450" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H450" s="2" t="inlineStr">
         <is>
           <t>010302027601</t>
@@ -34875,10 +36507,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D451" s="2" t="inlineStr"/>
-      <c r="E451" s="2" t="inlineStr"/>
-      <c r="F451" s="2" t="inlineStr"/>
-      <c r="G451" s="2" t="inlineStr"/>
+      <c r="D451" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E451" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F451" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G451" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H451" s="2" t="inlineStr">
         <is>
           <t>010302027701</t>
@@ -34947,10 +36595,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D452" s="2" t="inlineStr"/>
-      <c r="E452" s="2" t="inlineStr"/>
-      <c r="F452" s="2" t="inlineStr"/>
-      <c r="G452" s="2" t="inlineStr"/>
+      <c r="D452" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E452" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F452" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G452" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H452" s="2" t="inlineStr">
         <is>
           <t>010302028501</t>
@@ -35019,10 +36683,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D453" s="2" t="inlineStr"/>
-      <c r="E453" s="2" t="inlineStr"/>
-      <c r="F453" s="2" t="inlineStr"/>
-      <c r="G453" s="2" t="inlineStr"/>
+      <c r="D453" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E453" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H453" s="2" t="inlineStr">
         <is>
           <t>010302028601</t>
@@ -35091,10 +36771,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D454" s="2" t="inlineStr"/>
-      <c r="E454" s="2" t="inlineStr"/>
-      <c r="F454" s="2" t="inlineStr"/>
-      <c r="G454" s="2" t="inlineStr"/>
+      <c r="D454" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H454" s="2" t="inlineStr">
         <is>
           <t>010302028701</t>
@@ -35163,10 +36859,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D455" s="2" t="inlineStr"/>
-      <c r="E455" s="2" t="inlineStr"/>
-      <c r="F455" s="2" t="inlineStr"/>
-      <c r="G455" s="2" t="inlineStr"/>
+      <c r="D455" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H455" s="2" t="inlineStr">
         <is>
           <t>010302028901</t>
@@ -35235,10 +36947,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D456" s="2" t="inlineStr"/>
-      <c r="E456" s="2" t="inlineStr"/>
-      <c r="F456" s="2" t="inlineStr"/>
-      <c r="G456" s="2" t="inlineStr"/>
+      <c r="D456" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H456" s="2" t="inlineStr">
         <is>
           <t>010302029101</t>
@@ -35307,10 +37035,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D457" s="2" t="inlineStr"/>
-      <c r="E457" s="2" t="inlineStr"/>
-      <c r="F457" s="2" t="inlineStr"/>
-      <c r="G457" s="2" t="inlineStr"/>
+      <c r="D457" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H457" s="2" t="inlineStr">
         <is>
           <t>010302029201</t>
@@ -35379,10 +37123,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D458" s="2" t="inlineStr"/>
-      <c r="E458" s="2" t="inlineStr"/>
-      <c r="F458" s="2" t="inlineStr"/>
-      <c r="G458" s="2" t="inlineStr"/>
+      <c r="D458" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H458" s="2" t="inlineStr">
         <is>
           <t>010302029701</t>
@@ -35451,10 +37211,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D459" s="2" t="inlineStr"/>
-      <c r="E459" s="2" t="inlineStr"/>
-      <c r="F459" s="2" t="inlineStr"/>
-      <c r="G459" s="2" t="inlineStr"/>
+      <c r="D459" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H459" s="2" t="inlineStr">
         <is>
           <t>010302029801</t>
@@ -35523,10 +37299,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D460" s="2" t="inlineStr"/>
-      <c r="E460" s="2" t="inlineStr"/>
-      <c r="F460" s="2" t="inlineStr"/>
-      <c r="G460" s="2" t="inlineStr"/>
+      <c r="D460" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H460" s="2" t="inlineStr">
         <is>
           <t>010302029901</t>
@@ -35595,10 +37387,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D461" s="2" t="inlineStr"/>
-      <c r="E461" s="2" t="inlineStr"/>
-      <c r="F461" s="2" t="inlineStr"/>
-      <c r="G461" s="2" t="inlineStr"/>
+      <c r="D461" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H461" s="2" t="inlineStr">
         <is>
           <t>010302030001</t>
@@ -35667,10 +37475,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D462" s="2" t="inlineStr"/>
-      <c r="E462" s="2" t="inlineStr"/>
-      <c r="F462" s="2" t="inlineStr"/>
-      <c r="G462" s="2" t="inlineStr"/>
+      <c r="D462" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E462" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F462" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G462" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H462" s="2" t="inlineStr">
         <is>
           <t>010302030201</t>
@@ -35739,10 +37563,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D463" s="2" t="inlineStr"/>
-      <c r="E463" s="2" t="inlineStr"/>
-      <c r="F463" s="2" t="inlineStr"/>
-      <c r="G463" s="2" t="inlineStr"/>
+      <c r="D463" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E463" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F463" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G463" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H463" s="2" t="inlineStr">
         <is>
           <t>010302030301</t>
@@ -35811,10 +37651,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D464" s="2" t="inlineStr"/>
-      <c r="E464" s="2" t="inlineStr"/>
-      <c r="F464" s="2" t="inlineStr"/>
-      <c r="G464" s="2" t="inlineStr"/>
+      <c r="D464" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E464" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F464" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G464" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H464" s="2" t="inlineStr">
         <is>
           <t>010302030401</t>
@@ -35883,10 +37739,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D465" s="2" t="inlineStr"/>
-      <c r="E465" s="2" t="inlineStr"/>
-      <c r="F465" s="2" t="inlineStr"/>
-      <c r="G465" s="2" t="inlineStr"/>
+      <c r="D465" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E465" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F465" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G465" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H465" s="2" t="inlineStr">
         <is>
           <t>010302030801</t>
@@ -35955,10 +37827,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D466" s="2" t="inlineStr"/>
-      <c r="E466" s="2" t="inlineStr"/>
-      <c r="F466" s="2" t="inlineStr"/>
-      <c r="G466" s="2" t="inlineStr"/>
+      <c r="D466" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E466" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F466" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G466" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H466" s="2" t="inlineStr">
         <is>
           <t>010302031001</t>
@@ -36027,10 +37915,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D467" s="2" t="inlineStr"/>
-      <c r="E467" s="2" t="inlineStr"/>
-      <c r="F467" s="2" t="inlineStr"/>
-      <c r="G467" s="2" t="inlineStr"/>
+      <c r="D467" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E467" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F467" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G467" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H467" s="2" t="inlineStr">
         <is>
           <t>010302031301</t>
@@ -36099,10 +38003,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D468" s="2" t="inlineStr"/>
-      <c r="E468" s="2" t="inlineStr"/>
-      <c r="F468" s="2" t="inlineStr"/>
-      <c r="G468" s="2" t="inlineStr"/>
+      <c r="D468" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E468" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F468" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H468" s="2" t="inlineStr">
         <is>
           <t>010302031501</t>
@@ -36171,10 +38091,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D469" s="2" t="inlineStr"/>
-      <c r="E469" s="2" t="inlineStr"/>
-      <c r="F469" s="2" t="inlineStr"/>
-      <c r="G469" s="2" t="inlineStr"/>
+      <c r="D469" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H469" s="2" t="inlineStr">
         <is>
           <t>010302031601</t>
@@ -36243,10 +38179,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D470" s="2" t="inlineStr"/>
-      <c r="E470" s="2" t="inlineStr"/>
-      <c r="F470" s="2" t="inlineStr"/>
-      <c r="G470" s="2" t="inlineStr"/>
+      <c r="D470" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H470" s="2" t="inlineStr">
         <is>
           <t>010302032701</t>
@@ -36315,10 +38267,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D471" s="2" t="inlineStr"/>
-      <c r="E471" s="2" t="inlineStr"/>
-      <c r="F471" s="2" t="inlineStr"/>
-      <c r="G471" s="2" t="inlineStr"/>
+      <c r="D471" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H471" s="2" t="inlineStr">
         <is>
           <t>010801946201</t>
@@ -36387,10 +38355,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D472" s="2" t="inlineStr"/>
-      <c r="E472" s="2" t="inlineStr"/>
-      <c r="F472" s="2" t="inlineStr"/>
-      <c r="G472" s="2" t="inlineStr"/>
+      <c r="D472" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H472" s="2" t="inlineStr">
         <is>
           <t>010801946301</t>
@@ -36459,10 +38443,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D473" s="2" t="inlineStr"/>
-      <c r="E473" s="2" t="inlineStr"/>
-      <c r="F473" s="2" t="inlineStr"/>
-      <c r="G473" s="2" t="inlineStr"/>
+      <c r="D473" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H473" s="2" t="inlineStr">
         <is>
           <t>010801946501</t>
@@ -36531,10 +38531,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D474" s="2" t="inlineStr"/>
-      <c r="E474" s="2" t="inlineStr"/>
-      <c r="F474" s="2" t="inlineStr"/>
-      <c r="G474" s="2" t="inlineStr"/>
+      <c r="D474" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E474" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H474" s="2" t="inlineStr">
         <is>
           <t>010801946601</t>
@@ -36603,10 +38619,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D475" s="2" t="inlineStr"/>
-      <c r="E475" s="2" t="inlineStr"/>
-      <c r="F475" s="2" t="inlineStr"/>
-      <c r="G475" s="2" t="inlineStr"/>
+      <c r="D475" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E475" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F475" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G475" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H475" s="2" t="inlineStr">
         <is>
           <t>010801948801</t>
@@ -36675,10 +38707,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D476" s="2" t="inlineStr"/>
-      <c r="E476" s="2" t="inlineStr"/>
-      <c r="F476" s="2" t="inlineStr"/>
-      <c r="G476" s="2" t="inlineStr"/>
+      <c r="D476" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E476" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F476" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G476" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H476" s="2" t="inlineStr">
         <is>
           <t>010801948901</t>
@@ -36747,10 +38795,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D477" s="2" t="inlineStr"/>
-      <c r="E477" s="2" t="inlineStr"/>
-      <c r="F477" s="2" t="inlineStr"/>
-      <c r="G477" s="2" t="inlineStr"/>
+      <c r="D477" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E477" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F477" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G477" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H477" s="2" t="inlineStr">
         <is>
           <t>010801949001</t>
@@ -36819,10 +38883,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D478" s="2" t="inlineStr"/>
-      <c r="E478" s="2" t="inlineStr"/>
-      <c r="F478" s="2" t="inlineStr"/>
-      <c r="G478" s="2" t="inlineStr"/>
+      <c r="D478" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E478" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F478" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G478" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H478" s="2" t="inlineStr">
         <is>
           <t>010801949201</t>
@@ -36891,10 +38971,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D479" s="2" t="inlineStr"/>
-      <c r="E479" s="2" t="inlineStr"/>
-      <c r="F479" s="2" t="inlineStr"/>
-      <c r="G479" s="2" t="inlineStr"/>
+      <c r="D479" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E479" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F479" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G479" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H479" s="2" t="inlineStr">
         <is>
           <t>010801949301</t>
@@ -36963,10 +39059,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D480" s="2" t="inlineStr"/>
-      <c r="E480" s="2" t="inlineStr"/>
-      <c r="F480" s="2" t="inlineStr"/>
-      <c r="G480" s="2" t="inlineStr"/>
+      <c r="D480" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E480" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F480" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G480" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H480" s="2" t="inlineStr">
         <is>
           <t>010801950101</t>
@@ -37035,10 +39147,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D481" s="2" t="inlineStr"/>
-      <c r="E481" s="2" t="inlineStr"/>
-      <c r="F481" s="2" t="inlineStr"/>
-      <c r="G481" s="2" t="inlineStr"/>
+      <c r="D481" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E481" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H481" s="2" t="inlineStr">
         <is>
           <t>010801950201</t>
@@ -37107,10 +39235,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D482" s="2" t="inlineStr"/>
-      <c r="E482" s="2" t="inlineStr"/>
-      <c r="F482" s="2" t="inlineStr"/>
-      <c r="G482" s="2" t="inlineStr"/>
+      <c r="D482" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E482" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F482" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G482" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H482" s="2" t="inlineStr">
         <is>
           <t>010801950501</t>
@@ -37179,10 +39323,26 @@
           <t>上海华润</t>
         </is>
       </c>
-      <c r="D483" s="2" t="inlineStr"/>
-      <c r="E483" s="2" t="inlineStr"/>
-      <c r="F483" s="2" t="inlineStr"/>
-      <c r="G483" s="2" t="inlineStr"/>
+      <c r="D483" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="E483" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="F483" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
+      <c r="G483" s="2" t="inlineStr">
+        <is>
+          <t>未填报</t>
+        </is>
+      </c>
       <c r="H483" s="2" t="inlineStr">
         <is>
           <t>010801950601</t>
@@ -51074,7 +53234,7 @@
         <v>45289</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>1129</v>
+        <v>1019</v>
       </c>
       <c r="J73" s="2" t="n">
         <v>0</v>
@@ -54194,7 +56354,7 @@
         <v>44621</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>560.25</v>
+        <v>560.24</v>
       </c>
       <c r="J121" s="2" t="n">
         <v>0</v>
@@ -57314,7 +59474,7 @@
         <v>44887</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>2771.96</v>
+        <v>2771.95</v>
       </c>
       <c r="J169" s="2" t="n">
         <v>0</v>
@@ -61604,7 +63764,7 @@
         <v>44588</v>
       </c>
       <c r="I235" s="2" t="n">
-        <v>5357.92</v>
+        <v>5357.91</v>
       </c>
       <c r="J235" s="2" t="n">
         <v>0</v>
@@ -61929,7 +64089,7 @@
         <v>44734</v>
       </c>
       <c r="I240" s="2" t="n">
-        <v>2430.01</v>
+        <v>2430</v>
       </c>
       <c r="J240" s="2" t="n">
         <v>0</v>
